--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>remember formula</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>remember</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1881,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B414" sqref="B414"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D432" sqref="D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6238,8 +6244,11 @@
       <c r="B415" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C415" s="4" t="s">
-        <v>4</v>
+      <c r="C415" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D415" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="21">
@@ -6253,7 +6262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" spans="1:4" ht="21">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6264,7 +6273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" spans="1:4" ht="21">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6275,7 +6284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" spans="1:4" ht="21">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" spans="1:4" ht="21">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6297,7 +6306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" spans="1:4" ht="21">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6308,7 +6317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" spans="1:4" ht="21">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6319,7 +6328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" spans="1:4" ht="21">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6330,7 +6339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" spans="1:4" ht="21">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6341,7 +6350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" spans="1:4" ht="21">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6352,7 +6361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" spans="1:4" ht="21">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" spans="1:4" ht="21">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6374,7 +6383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" spans="1:4" ht="21">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6385,7 +6394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6396,7 +6405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" spans="1:4" ht="21">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6407,7 +6416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6418,15 +6427,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" spans="1:4" ht="21">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C432" s="4" t="s">
-        <v>4</v>
+      <c r="C432" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1440,6 +1440,12 @@
   </si>
   <si>
     <t>remember</t>
+  </si>
+  <si>
+    <t>solution not accepting in gfg</t>
+  </si>
+  <si>
+    <t>3D matrix</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,6 +1525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1561,6 +1573,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1881,8 +1896,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D432" sqref="D432"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6335,7 +6350,7 @@
       <c r="B423" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C423" s="4" t="s">
+      <c r="C423" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6346,7 +6361,7 @@
       <c r="B424" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C424" s="4" t="s">
+      <c r="C424" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6357,8 +6372,11 @@
       <c r="B425" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C425" s="4" t="s">
-        <v>4</v>
+      <c r="C425" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D425" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="21">
@@ -6379,8 +6397,11 @@
       <c r="B427" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C427" s="4" t="s">
-        <v>4</v>
+      <c r="C427" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D427" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1446,6 +1446,12 @@
   </si>
   <si>
     <t>3D matrix</t>
+  </si>
+  <si>
+    <t>optimize tle</t>
+  </si>
+  <si>
+    <t>practice again</t>
   </si>
 </sst>
 </file>
@@ -1896,8 +1902,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C428" sqref="C428"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6260,7 +6266,7 @@
         <v>399</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="D415" t="s">
         <v>467</v>
@@ -6273,8 +6279,11 @@
       <c r="B416" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C416" s="4" t="s">
-        <v>4</v>
+      <c r="C416" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D416" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="21">
@@ -6351,7 +6360,7 @@
         <v>406</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="21">
@@ -6362,7 +6371,7 @@
         <v>407</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="21">
@@ -6373,7 +6382,7 @@
         <v>408</v>
       </c>
       <c r="C425" s="12" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="D425" t="s">
         <v>469</v>
@@ -6398,7 +6407,7 @@
         <v>410</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="D427" t="s">
         <v>470</v>
@@ -6411,8 +6420,11 @@
       <c r="B428" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C428" s="4" t="s">
-        <v>4</v>
+      <c r="C428" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D428" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="21">
@@ -6456,7 +6468,7 @@
         <v>415</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="D432" t="s">
         <v>468</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1452,6 +1452,18 @@
   </si>
   <si>
     <t>practice again</t>
+  </si>
+  <si>
+    <t>Kadens algo parctice</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iOjV84903WA</t>
+  </si>
+  <si>
+    <t>practice needed</t>
+  </si>
+  <si>
+    <t>inprogress</t>
   </si>
 </sst>
 </file>
@@ -1900,10 +1912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D416" sqref="D416"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6280,13 +6292,13 @@
         <v>400</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="D416" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="21">
+    <row r="417" spans="1:5" ht="21">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6294,10 +6306,10 @@
         <v>273</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" ht="21">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="21">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6308,7 +6320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="21">
+    <row r="419" spans="1:5" ht="21">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6319,7 +6331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="21">
+    <row r="420" spans="1:5" ht="21">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6327,10 +6339,10 @@
         <v>403</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" ht="21">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="21">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6341,7 +6353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="21">
+    <row r="422" spans="1:5" ht="21">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6352,7 +6364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="21">
+    <row r="423" spans="1:5" ht="21">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6363,7 +6375,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="21">
+    <row r="424" spans="1:5" ht="21">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6374,7 +6386,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="21">
+    <row r="425" spans="1:5" ht="21">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6388,7 +6400,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="21">
+    <row r="426" spans="1:5" ht="21">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6399,7 +6411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="21">
+    <row r="427" spans="1:5" ht="21">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6413,7 +6425,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="21">
+    <row r="428" spans="1:5" ht="21">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6427,18 +6439,24 @@
         <v>471</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="21">
+    <row r="429" spans="1:5" ht="21">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C429" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" ht="21">
+      <c r="C429" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D429" t="s">
+        <v>475</v>
+      </c>
+      <c r="E429" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="21">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6449,7 +6467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="21">
+    <row r="431" spans="1:5" ht="21">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6460,7 +6478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="21">
+    <row r="432" spans="1:5" ht="21">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6474,7 +6492,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row r="433" spans="1:4" ht="21">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6485,7 +6503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row r="434" spans="1:4" ht="21">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6496,7 +6514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row r="435" spans="1:4" ht="21">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6507,7 +6525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row r="436" spans="1:4" ht="21">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6518,7 +6536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row r="437" spans="1:4" ht="21">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6529,7 +6547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row r="438" spans="1:4" ht="21">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6540,7 +6558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row r="439" spans="1:4" ht="21">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6551,7 +6569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row r="440" spans="1:4" ht="21">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6562,7 +6580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row r="441" spans="1:4" ht="21">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6573,7 +6591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row r="442" spans="1:4" ht="21">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6584,7 +6602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row r="443" spans="1:4" ht="21">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6595,18 +6613,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row r="444" spans="1:4" ht="21">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C444" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="21">
+      <c r="C444" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D444" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="21">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6617,7 +6638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row r="446" spans="1:4" ht="21">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6628,7 +6649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row r="447" spans="1:4" ht="21">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6639,7 +6660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" spans="1:4" ht="21">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1464,6 +1464,12 @@
   </si>
   <si>
     <t>inprogress</t>
+  </si>
+  <si>
+    <t>simillar to 0-1 knapscak</t>
+  </si>
+  <si>
+    <t>Practice top down dp in 0-1 knapscak</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1921,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A410" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+      <selection activeCell="E417" sqref="E417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6305,8 +6311,14 @@
       <c r="B417" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C417" s="4" t="s">
-        <v>476</v>
+      <c r="C417" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D417" t="s">
+        <v>477</v>
+      </c>
+      <c r="E417" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1463,13 +1463,22 @@
     <t>practice needed</t>
   </si>
   <si>
-    <t>inprogress</t>
-  </si>
-  <si>
     <t>simillar to 0-1 knapscak</t>
   </si>
   <si>
     <t>Practice top down dp in 0-1 knapscak</t>
+  </si>
+  <si>
+    <t>Formula based</t>
+  </si>
+  <si>
+    <t>approch to be remember</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>same as 425</t>
   </si>
 </sst>
 </file>
@@ -1920,8 +1929,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E417" sqref="E417"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C437" sqref="C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1937,13 +1946,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" ht="15.75" hidden="1" customHeight="1">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1"/>
-    <row r="4" spans="1:3" ht="21" hidden="1">
+    <row r="3" spans="1:3" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="4" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1954,12 +1963,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" ht="15.75" hidden="1" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" hidden="1">
+    <row r="6" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" hidden="1">
+    <row r="7" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1981,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" hidden="1">
+    <row r="8" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1992,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" hidden="1">
+    <row r="9" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2003,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" hidden="1">
+    <row r="10" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" hidden="1">
+    <row r="11" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" hidden="1">
+    <row r="12" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" hidden="1">
+    <row r="13" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" hidden="1">
+    <row r="14" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" hidden="1">
+    <row r="15" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2069,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" hidden="1">
+    <row r="16" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2080,7 +2089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" hidden="1">
+    <row r="17" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2091,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" hidden="1">
+    <row r="18" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" hidden="1">
+    <row r="19" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" hidden="1">
+    <row r="20" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" hidden="1">
+    <row r="21" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" hidden="1">
+    <row r="22" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" hidden="1">
+    <row r="23" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" hidden="1">
+    <row r="24" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" hidden="1">
+    <row r="25" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" hidden="1">
+    <row r="26" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21" hidden="1">
+    <row r="27" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" hidden="1">
+    <row r="28" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2212,7 +2221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21" hidden="1">
+    <row r="29" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2223,7 +2232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21" hidden="1">
+    <row r="30" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2234,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" hidden="1">
+    <row r="31" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" hidden="1">
+    <row r="32" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" hidden="1">
+    <row r="33" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" hidden="1">
+    <row r="34" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2278,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21" hidden="1">
+    <row r="35" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21" hidden="1">
+    <row r="36" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21" hidden="1">
+    <row r="37" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2311,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" hidden="1">
+    <row r="38" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21" hidden="1">
+    <row r="39" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21" hidden="1">
+    <row r="40" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21" hidden="1">
+    <row r="41" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2355,20 +2364,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21" hidden="1">
+    <row r="42" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21" hidden="1">
+    <row r="43" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21" hidden="1">
+    <row r="44" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" hidden="1">
+    <row r="45" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21" hidden="1">
+    <row r="46" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2401,7 +2410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21" hidden="1">
+    <row r="47" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +2421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21" hidden="1">
+    <row r="48" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2423,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" hidden="1">
+    <row r="49" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21" hidden="1">
+    <row r="50" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21" hidden="1">
+    <row r="51" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21" hidden="1">
+    <row r="52" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21" hidden="1">
+    <row r="53" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2478,13 +2487,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1"/>
-    <row r="55" spans="1:3" ht="21" hidden="1">
+    <row r="54" spans="1:3" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="55" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21" hidden="1">
+    <row r="56" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21" hidden="1">
+    <row r="57" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21" hidden="1">
+    <row r="58" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21" hidden="1">
+    <row r="59" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2528,7 +2537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21" hidden="1">
+    <row r="60" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2539,7 +2548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21" hidden="1">
+    <row r="61" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2550,7 +2559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" hidden="1">
+    <row r="62" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2561,7 +2570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21" hidden="1">
+    <row r="63" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21" hidden="1">
+    <row r="64" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21" hidden="1">
+    <row r="65" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2594,7 +2603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21" hidden="1">
+    <row r="66" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2605,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" hidden="1">
+    <row r="67" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21" hidden="1">
+    <row r="68" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21" hidden="1">
+    <row r="69" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21" hidden="1">
+    <row r="70" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" hidden="1">
+    <row r="71" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21" hidden="1">
+    <row r="72" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21" hidden="1">
+    <row r="73" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21" hidden="1">
+    <row r="74" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2693,7 +2702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21" hidden="1">
+    <row r="75" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2704,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" hidden="1">
+    <row r="76" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2715,7 +2724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21" hidden="1">
+    <row r="77" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21" hidden="1">
+    <row r="78" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2737,7 +2746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21" hidden="1">
+    <row r="79" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2748,7 +2757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21" hidden="1">
+    <row r="80" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21" hidden="1">
+    <row r="81" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2770,7 +2779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" hidden="1">
+    <row r="82" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2781,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" hidden="1">
+    <row r="83" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2792,7 +2801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21" hidden="1">
+    <row r="84" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21" hidden="1">
+    <row r="85" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21" hidden="1">
+    <row r="86" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2825,7 +2834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21" hidden="1">
+    <row r="87" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2836,7 +2845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" hidden="1">
+    <row r="88" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21" hidden="1">
+    <row r="89" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2858,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21" hidden="1">
+    <row r="90" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21" hidden="1">
+    <row r="91" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2880,7 +2889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21" hidden="1">
+    <row r="92" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" hidden="1">
+    <row r="93" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21" hidden="1">
+    <row r="94" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21" hidden="1">
+    <row r="95" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21" hidden="1">
+    <row r="96" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -2935,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21" hidden="1">
+    <row r="97" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -2946,7 +2955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21" hidden="1">
+    <row r="98" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -2957,13 +2966,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1"/>
-    <row r="100" spans="1:3" ht="21" hidden="1">
+    <row r="99" spans="1:3" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="100" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21" hidden="1">
+    <row r="101" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21" hidden="1">
+    <row r="102" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21" hidden="1">
+    <row r="103" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21" hidden="1">
+    <row r="104" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21" hidden="1">
+    <row r="105" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3018,7 +3027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" hidden="1">
+    <row r="106" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21" hidden="1">
+    <row r="107" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3040,7 +3049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21" hidden="1">
+    <row r="108" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3051,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21" hidden="1">
+    <row r="109" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21" hidden="1">
+    <row r="110" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21" hidden="1">
+    <row r="111" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21" hidden="1">
+    <row r="112" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21" hidden="1">
+    <row r="113" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21" hidden="1">
+    <row r="114" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21" hidden="1">
+    <row r="115" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3128,7 +3137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21" hidden="1">
+    <row r="116" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21" hidden="1">
+    <row r="117" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21" hidden="1">
+    <row r="118" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3161,7 +3170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21" hidden="1">
+    <row r="119" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3172,7 +3181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21" hidden="1">
+    <row r="120" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3183,7 +3192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21" hidden="1">
+    <row r="121" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3194,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21" hidden="1">
+    <row r="122" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3205,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21" hidden="1">
+    <row r="123" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3216,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21" hidden="1">
+    <row r="124" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21" hidden="1">
+    <row r="125" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21" hidden="1">
+    <row r="126" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3249,7 +3258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21" hidden="1">
+    <row r="127" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3260,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21" hidden="1">
+    <row r="128" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21" hidden="1">
+    <row r="129" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21" hidden="1">
+    <row r="130" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21" hidden="1">
+    <row r="131" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3304,7 +3313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21" hidden="1">
+    <row r="132" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3315,7 +3324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21" hidden="1">
+    <row r="133" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21" hidden="1">
+    <row r="134" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21" hidden="1">
+    <row r="135" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3348,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21" hidden="1">
+    <row r="136" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3359,12 +3368,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1"/>
-    <row r="138" spans="1:3" ht="21" hidden="1">
+    <row r="137" spans="1:3" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="138" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21" hidden="1">
+    <row r="139" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21" hidden="1">
+    <row r="140" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21" hidden="1">
+    <row r="141" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21" hidden="1">
+    <row r="142" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3408,7 +3417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21" hidden="1">
+    <row r="143" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21" hidden="1">
+    <row r="144" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3430,7 +3439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21" hidden="1">
+    <row r="145" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3441,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21" hidden="1">
+    <row r="146" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3452,7 +3461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21" hidden="1">
+    <row r="147" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21" hidden="1">
+    <row r="148" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3474,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21" hidden="1">
+    <row r="149" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21" hidden="1">
+    <row r="150" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3496,7 +3505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21" hidden="1">
+    <row r="151" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3507,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21" hidden="1">
+    <row r="152" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3518,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21" hidden="1">
+    <row r="153" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3529,7 +3538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21" hidden="1">
+    <row r="154" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3540,7 +3549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21" hidden="1">
+    <row r="155" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21" hidden="1">
+    <row r="156" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21" hidden="1">
+    <row r="157" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3573,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21" hidden="1">
+    <row r="158" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3584,7 +3593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21" hidden="1">
+    <row r="159" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3595,7 +3604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21" hidden="1">
+    <row r="160" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21" hidden="1">
+    <row r="161" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3617,7 +3626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21" hidden="1">
+    <row r="162" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3628,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21" hidden="1">
+    <row r="163" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3639,7 +3648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21" hidden="1">
+    <row r="164" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21" hidden="1">
+    <row r="165" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3661,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21" hidden="1">
+    <row r="166" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3672,7 +3681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21" hidden="1">
+    <row r="167" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3683,7 +3692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21" hidden="1">
+    <row r="168" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3694,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21" hidden="1">
+    <row r="169" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3705,7 +3714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21" hidden="1">
+    <row r="170" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21" hidden="1">
+    <row r="171" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3727,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21" hidden="1">
+    <row r="172" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3738,7 +3747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21" hidden="1">
+    <row r="173" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3749,7 +3758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21" hidden="1">
+    <row r="174" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3760,12 +3769,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1"/>
-    <row r="176" spans="1:3" ht="21" hidden="1">
+    <row r="175" spans="1:3" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="176" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21" hidden="1">
+    <row r="177" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21" hidden="1">
+    <row r="178" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21" hidden="1">
+    <row r="179" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21" hidden="1">
+    <row r="180" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3809,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21" hidden="1">
+    <row r="181" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21" hidden="1">
+    <row r="182" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21" hidden="1">
+    <row r="183" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3842,7 +3851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21" hidden="1">
+    <row r="184" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3853,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21" hidden="1">
+    <row r="185" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3864,7 +3873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21" hidden="1">
+    <row r="186" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21" hidden="1">
+    <row r="187" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21" hidden="1">
+    <row r="188" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3897,7 +3906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21" hidden="1">
+    <row r="189" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3908,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21" hidden="1">
+    <row r="190" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3919,7 +3928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21" hidden="1">
+    <row r="191" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3930,7 +3939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21" hidden="1">
+    <row r="192" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -3941,7 +3950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21" hidden="1">
+    <row r="193" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -3952,7 +3961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21" hidden="1">
+    <row r="194" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -3963,7 +3972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21" hidden="1">
+    <row r="195" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21" hidden="1">
+    <row r="196" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21" hidden="1">
+    <row r="197" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -3996,7 +4005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21" hidden="1">
+    <row r="198" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4007,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21" hidden="1">
+    <row r="199" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4018,7 +4027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21" hidden="1">
+    <row r="200" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4029,7 +4038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21" hidden="1">
+    <row r="201" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4040,7 +4049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21" hidden="1">
+    <row r="202" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4051,7 +4060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21" hidden="1">
+    <row r="203" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4062,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21" hidden="1">
+    <row r="204" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4073,7 +4082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21" hidden="1">
+    <row r="205" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21" hidden="1">
+    <row r="206" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4095,7 +4104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21" hidden="1">
+    <row r="207" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4106,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21" hidden="1">
+    <row r="208" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4117,7 +4126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21" hidden="1">
+    <row r="209" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21" hidden="1">
+    <row r="210" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21" hidden="1">
+    <row r="211" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4150,17 +4159,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21" hidden="1">
+    <row r="212" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="21" hidden="1">
+    <row r="213" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21" hidden="1">
+    <row r="214" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4171,7 +4180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21" hidden="1">
+    <row r="215" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4182,7 +4191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21" hidden="1">
+    <row r="216" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21" hidden="1">
+    <row r="217" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21" hidden="1">
+    <row r="218" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4215,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21" hidden="1">
+    <row r="219" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21" hidden="1">
+    <row r="220" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4237,7 +4246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21" hidden="1">
+    <row r="221" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21" hidden="1">
+    <row r="222" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21" hidden="1">
+    <row r="223" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4270,7 +4279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21" hidden="1">
+    <row r="224" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4281,7 +4290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21" hidden="1">
+    <row r="225" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21" hidden="1">
+    <row r="226" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4303,7 +4312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21" hidden="1">
+    <row r="227" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4314,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21" hidden="1">
+    <row r="228" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21" hidden="1">
+    <row r="229" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4336,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21" hidden="1">
+    <row r="230" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4347,7 +4356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21" hidden="1">
+    <row r="231" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21" hidden="1">
+    <row r="232" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21" hidden="1">
+    <row r="233" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21" hidden="1">
+    <row r="234" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21" hidden="1">
+    <row r="235" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4402,15 +4411,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21" hidden="1">
+    <row r="236" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="21" hidden="1">
+    <row r="237" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21" hidden="1">
+    <row r="238" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -4421,7 +4430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21" hidden="1">
+    <row r="239" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4432,7 +4441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21" hidden="1">
+    <row r="240" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4443,7 +4452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21" hidden="1">
+    <row r="241" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21" hidden="1">
+    <row r="242" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4465,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21" hidden="1">
+    <row r="243" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4476,7 +4485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21" hidden="1">
+    <row r="244" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4487,7 +4496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21" hidden="1">
+    <row r="245" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4498,7 +4507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21" hidden="1">
+    <row r="246" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4509,7 +4518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21" hidden="1">
+    <row r="247" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4520,7 +4529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21" hidden="1">
+    <row r="248" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21" hidden="1">
+    <row r="249" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21" hidden="1">
+    <row r="250" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4553,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21" hidden="1">
+    <row r="251" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21" hidden="1">
+    <row r="252" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21" hidden="1">
+    <row r="253" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4586,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21" hidden="1">
+    <row r="254" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4597,7 +4606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21" hidden="1">
+    <row r="255" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4608,7 +4617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21" hidden="1">
+    <row r="256" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21" hidden="1">
+    <row r="257" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4630,7 +4639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21" hidden="1">
+    <row r="258" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4641,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21" hidden="1">
+    <row r="259" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4652,7 +4661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21" hidden="1">
+    <row r="260" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4663,7 +4672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21" hidden="1">
+    <row r="261" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4674,7 +4683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21" hidden="1">
+    <row r="262" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4685,7 +4694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21" hidden="1">
+    <row r="263" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4696,7 +4705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21" hidden="1">
+    <row r="264" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21" hidden="1">
+    <row r="265" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4718,7 +4727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21" hidden="1">
+    <row r="266" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4729,7 +4738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21" hidden="1">
+    <row r="267" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21" hidden="1">
+    <row r="268" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4751,7 +4760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21" hidden="1">
+    <row r="269" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -4762,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21" hidden="1">
+    <row r="270" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -4773,7 +4782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21" hidden="1">
+    <row r="271" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4784,7 +4793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21" hidden="1">
+    <row r="272" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4795,15 +4804,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21" hidden="1">
+    <row r="273" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:3" ht="21" hidden="1">
+    <row r="274" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" ht="21" hidden="1">
+    <row r="275" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
@@ -4814,7 +4823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21" hidden="1">
+    <row r="276" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
@@ -4825,7 +4834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21" hidden="1">
+    <row r="277" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
@@ -4836,7 +4845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21" hidden="1">
+    <row r="278" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
@@ -4847,7 +4856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21" hidden="1">
+    <row r="279" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
@@ -4858,7 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21" hidden="1">
+    <row r="280" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -4869,7 +4878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21" hidden="1">
+    <row r="281" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
@@ -4880,7 +4889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21" hidden="1">
+    <row r="282" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
@@ -4891,7 +4900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21" hidden="1">
+    <row r="283" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21" hidden="1">
+    <row r="284" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
@@ -4913,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21" hidden="1">
+    <row r="285" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
@@ -4924,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21" hidden="1">
+    <row r="286" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
@@ -4935,7 +4944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21" hidden="1">
+    <row r="287" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -4946,7 +4955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21" hidden="1">
+    <row r="288" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
@@ -4957,7 +4966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21" hidden="1">
+    <row r="289" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21" hidden="1">
+    <row r="290" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
@@ -4979,7 +4988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21" hidden="1">
+    <row r="291" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
@@ -4990,7 +4999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21" hidden="1">
+    <row r="292" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
@@ -5001,7 +5010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21" hidden="1">
+    <row r="293" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
@@ -5012,15 +5021,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21" hidden="1">
+    <row r="294" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" ht="21" hidden="1">
+    <row r="295" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" ht="21" hidden="1">
+    <row r="296" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
@@ -5031,7 +5040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21" hidden="1">
+    <row r="297" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -5042,7 +5051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21" hidden="1">
+    <row r="298" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -5053,7 +5062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21" hidden="1">
+    <row r="299" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -5064,7 +5073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21" hidden="1">
+    <row r="300" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5075,7 +5084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21" hidden="1">
+    <row r="301" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5086,7 +5095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21" hidden="1">
+    <row r="302" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5097,7 +5106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21" hidden="1">
+    <row r="303" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21" hidden="1">
+    <row r="304" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5119,7 +5128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21" hidden="1">
+    <row r="305" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5130,7 +5139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21" hidden="1">
+    <row r="306" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5141,7 +5150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21" hidden="1">
+    <row r="307" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5152,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21" hidden="1">
+    <row r="308" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5163,7 +5172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21" hidden="1">
+    <row r="309" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5174,7 +5183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21" hidden="1">
+    <row r="310" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5185,7 +5194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21" hidden="1">
+    <row r="311" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5196,7 +5205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21" hidden="1">
+    <row r="312" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5207,7 +5216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21" hidden="1">
+    <row r="313" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5218,7 +5227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21" hidden="1">
+    <row r="314" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5229,7 +5238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21" hidden="1">
+    <row r="315" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21" hidden="1">
+    <row r="316" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5251,7 +5260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21" hidden="1">
+    <row r="317" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5262,7 +5271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21" hidden="1">
+    <row r="318" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5273,7 +5282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21" hidden="1">
+    <row r="319" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5284,7 +5293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21" hidden="1">
+    <row r="320" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5295,7 +5304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21" hidden="1">
+    <row r="321" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5306,7 +5315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21" hidden="1">
+    <row r="322" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5317,7 +5326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21" hidden="1">
+    <row r="323" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5328,7 +5337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21" hidden="1">
+    <row r="324" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21" hidden="1">
+    <row r="325" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5350,7 +5359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21" hidden="1">
+    <row r="326" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5361,7 +5370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21" hidden="1">
+    <row r="327" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5372,7 +5381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21" hidden="1">
+    <row r="328" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5383,7 +5392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21" hidden="1">
+    <row r="329" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5394,7 +5403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21" hidden="1">
+    <row r="330" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5405,7 +5414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21" hidden="1">
+    <row r="331" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5416,7 +5425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21" hidden="1">
+    <row r="332" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5427,7 +5436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21" hidden="1">
+    <row r="333" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5438,15 +5447,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21" hidden="1">
+    <row r="334" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" ht="21" hidden="1">
+    <row r="335" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="21" hidden="1">
+    <row r="336" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -5457,7 +5466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21" hidden="1">
+    <row r="337" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21" hidden="1">
+    <row r="338" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -5479,7 +5488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21" hidden="1">
+    <row r="339" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -5490,7 +5499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21" hidden="1">
+    <row r="340" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -5501,7 +5510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21" hidden="1">
+    <row r="341" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -5512,7 +5521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21" hidden="1">
+    <row r="342" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -5523,7 +5532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21" hidden="1">
+    <row r="343" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -5534,7 +5543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21" hidden="1">
+    <row r="344" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21" hidden="1">
+    <row r="345" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -5556,7 +5565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21" hidden="1">
+    <row r="346" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -5567,7 +5576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21" hidden="1">
+    <row r="347" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -5578,7 +5587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21" hidden="1">
+    <row r="348" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -5589,7 +5598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21" hidden="1">
+    <row r="349" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21" hidden="1">
+    <row r="350" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21" hidden="1">
+    <row r="351" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
@@ -5622,7 +5631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21" hidden="1">
+    <row r="352" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -5633,7 +5642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21" hidden="1">
+    <row r="353" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5644,15 +5653,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21" hidden="1">
+    <row r="354" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="21" hidden="1">
+    <row r="355" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="21" hidden="1">
+    <row r="356" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -5663,7 +5672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21" hidden="1">
+    <row r="357" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5674,7 +5683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21" hidden="1">
+    <row r="358" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5685,7 +5694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21" hidden="1">
+    <row r="359" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5696,7 +5705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21" hidden="1">
+    <row r="360" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5707,7 +5716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21" hidden="1">
+    <row r="361" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5718,7 +5727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21" hidden="1">
+    <row r="362" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5729,7 +5738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21" hidden="1">
+    <row r="363" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21" hidden="1">
+    <row r="364" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5751,7 +5760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21" hidden="1">
+    <row r="365" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5762,7 +5771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21" hidden="1">
+    <row r="366" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5773,7 +5782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21" hidden="1">
+    <row r="367" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5784,7 +5793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21" hidden="1">
+    <row r="368" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5795,7 +5804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21" hidden="1">
+    <row r="369" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21" hidden="1">
+    <row r="370" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5817,7 +5826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21" hidden="1">
+    <row r="371" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5828,7 +5837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21" hidden="1">
+    <row r="372" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5839,7 +5848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21" hidden="1">
+    <row r="373" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5850,7 +5859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21" hidden="1">
+    <row r="374" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21" hidden="1">
+    <row r="375" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5872,7 +5881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21" hidden="1">
+    <row r="376" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5883,7 +5892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21" hidden="1">
+    <row r="377" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5894,7 +5903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21" hidden="1">
+    <row r="378" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21" hidden="1">
+    <row r="379" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5916,7 +5925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21" hidden="1">
+    <row r="380" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5927,7 +5936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21" hidden="1">
+    <row r="381" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5938,7 +5947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21" hidden="1">
+    <row r="382" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -5949,7 +5958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21" hidden="1">
+    <row r="383" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -5960,7 +5969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21" hidden="1">
+    <row r="384" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -5971,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21" hidden="1">
+    <row r="385" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -5982,7 +5991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21" hidden="1">
+    <row r="386" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -5993,7 +6002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21" hidden="1">
+    <row r="387" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -6004,7 +6013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21" hidden="1">
+    <row r="388" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -6015,7 +6024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21" hidden="1">
+    <row r="389" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -6026,7 +6035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21" hidden="1">
+    <row r="390" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -6037,7 +6046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21" hidden="1">
+    <row r="391" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -6048,7 +6057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21" hidden="1">
+    <row r="392" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6059,7 +6068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21" hidden="1">
+    <row r="393" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6070,7 +6079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21" hidden="1">
+    <row r="394" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21" hidden="1">
+    <row r="395" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6092,7 +6101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21" hidden="1">
+    <row r="396" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6103,7 +6112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21" hidden="1">
+    <row r="397" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6114,7 +6123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21" hidden="1">
+    <row r="398" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21" hidden="1">
+    <row r="399" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6136,15 +6145,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21" hidden="1">
+    <row r="400" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:4" ht="21" hidden="1">
+    <row r="401" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:4" ht="21" hidden="1">
+    <row r="402" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="21" hidden="1">
+    <row r="403" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6166,7 +6175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="21" hidden="1">
+    <row r="404" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="21" hidden="1">
+    <row r="405" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -6188,7 +6197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="21" hidden="1">
+    <row r="406" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="21" hidden="1">
+    <row r="407" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6210,11 +6219,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="21" hidden="1">
+    <row r="408" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:4" ht="21" hidden="1">
+    <row r="409" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
@@ -6315,10 +6324,10 @@
         <v>465</v>
       </c>
       <c r="D417" t="s">
+        <v>476</v>
+      </c>
+      <c r="E417" t="s">
         <v>477</v>
-      </c>
-      <c r="E417" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="21">
@@ -6328,8 +6337,11 @@
       <c r="B418" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C418" s="4" t="s">
-        <v>4</v>
+      <c r="C418" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D418" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="21">
@@ -6339,8 +6351,8 @@
       <c r="B419" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C419" s="4" t="s">
-        <v>4</v>
+      <c r="C419" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="21">
@@ -6350,9 +6362,7 @@
       <c r="B420" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C420" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="C420" s="4"/>
     </row>
     <row r="421" spans="1:5" ht="21">
       <c r="A421" s="5" t="s">
@@ -6361,8 +6371,11 @@
       <c r="B421" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C421" s="4" t="s">
-        <v>4</v>
+      <c r="C421" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D421" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="21">
@@ -6372,8 +6385,8 @@
       <c r="B422" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C422" s="4" t="s">
-        <v>4</v>
+      <c r="C422" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="21">
@@ -6406,7 +6419,7 @@
         <v>408</v>
       </c>
       <c r="C425" s="12" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="D425" t="s">
         <v>469</v>
@@ -6475,8 +6488,14 @@
       <c r="B430" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C430" s="4" t="s">
-        <v>4</v>
+      <c r="C430" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D430" t="s">
+        <v>469</v>
+      </c>
+      <c r="E430" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="21">
@@ -6522,8 +6541,8 @@
       <c r="B434" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C434" s="4" t="s">
-        <v>4</v>
+      <c r="C434" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="21">
@@ -6914,16 +6933,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" hidden="1">
+    <row r="470" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:3" ht="21" hidden="1">
+    <row r="471" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:3" ht="21" hidden="1">
+    <row r="472" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -6934,7 +6953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21" hidden="1">
+    <row r="473" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -6945,7 +6964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21" hidden="1">
+    <row r="474" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -6956,7 +6975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21" hidden="1">
+    <row r="475" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -6967,7 +6986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21" hidden="1">
+    <row r="476" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -6978,7 +6997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21" hidden="1">
+    <row r="477" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -6989,7 +7008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21" hidden="1">
+    <row r="478" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
@@ -7000,7 +7019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21" hidden="1">
+    <row r="479" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -7011,7 +7030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21" hidden="1">
+    <row r="480" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
@@ -7022,7 +7041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21" hidden="1">
+    <row r="481" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>
@@ -7490,5 +7509,6 @@
     <hyperlink ref="B2" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$481</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1479,6 +1479,9 @@
   </si>
   <si>
     <t>same as 425</t>
+  </si>
+  <si>
+    <t>Kadens variation</t>
   </si>
 </sst>
 </file>
@@ -1929,14 +1932,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C437" sqref="C437"/>
+    <sheetView tabSelected="1" topLeftCell="A464" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="99.875" customWidth="1"/>
+    <col min="2" max="2" width="99.125" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
   </cols>
@@ -6362,7 +6365,9 @@
       <c r="B420" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C420" s="4"/>
+      <c r="C420" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="421" spans="1:5" ht="21">
       <c r="A421" s="5" t="s">
@@ -6458,7 +6463,7 @@
         <v>411</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="D428" t="s">
         <v>471</v>
@@ -6471,7 +6476,7 @@
       <c r="B429" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C429" s="12" t="s">
+      <c r="C429" s="11" t="s">
         <v>465</v>
       </c>
       <c r="D429" t="s">
@@ -6574,8 +6579,11 @@
       <c r="B437" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C437" s="4" t="s">
-        <v>4</v>
+      <c r="C437" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D437" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="21">
@@ -7053,7 +7061,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A481">
+  <autoFilter ref="A1:E481">
     <filterColumn colId="0">
       <filters>
         <filter val="Dynamic Programming"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="485">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1442,9 +1442,6 @@
     <t>remember</t>
   </si>
   <si>
-    <t>solution not accepting in gfg</t>
-  </si>
-  <si>
     <t>3D matrix</t>
   </si>
   <si>
@@ -1482,6 +1479,15 @@
   </si>
   <si>
     <t>Kadens variation</t>
+  </si>
+  <si>
+    <t>remember the approch</t>
+  </si>
+  <si>
+    <t>textbook que</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1932,8 +1938,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B433" sqref="B433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6313,7 +6319,7 @@
         <v>465</v>
       </c>
       <c r="D416" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="21">
@@ -6327,10 +6333,10 @@
         <v>465</v>
       </c>
       <c r="D417" t="s">
+        <v>475</v>
+      </c>
+      <c r="E417" t="s">
         <v>476</v>
-      </c>
-      <c r="E417" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="21">
@@ -6344,7 +6350,7 @@
         <v>465</v>
       </c>
       <c r="D418" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="21">
@@ -6380,7 +6386,7 @@
         <v>465</v>
       </c>
       <c r="D421" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="21">
@@ -6423,11 +6429,14 @@
       <c r="B425" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C425" s="12" t="s">
-        <v>480</v>
+      <c r="C425" s="11" t="s">
+        <v>465</v>
       </c>
       <c r="D425" t="s">
-        <v>469</v>
+        <v>482</v>
+      </c>
+      <c r="E425" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="21">
@@ -6452,7 +6461,7 @@
         <v>465</v>
       </c>
       <c r="D427" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="21">
@@ -6463,10 +6472,10 @@
         <v>411</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D428" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="21">
@@ -6480,10 +6489,10 @@
         <v>465</v>
       </c>
       <c r="D429" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E429" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="21">
@@ -6493,14 +6502,14 @@
       <c r="B430" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C430" s="12" t="s">
+      <c r="C430" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D430" t="s">
+        <v>484</v>
+      </c>
+      <c r="E430" t="s">
         <v>480</v>
-      </c>
-      <c r="D430" t="s">
-        <v>469</v>
-      </c>
-      <c r="E430" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="21">
@@ -6583,7 +6592,7 @@
         <v>465</v>
       </c>
       <c r="D437" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="21">
@@ -6663,7 +6672,7 @@
         <v>465</v>
       </c>
       <c r="D444" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,22 +18,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$481</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="487">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1488,6 +1483,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TLE in GFG</t>
+  </si>
+  <si>
+    <t>partially</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1620,6 +1621,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1938,8 +1944,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B433" sqref="B433"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3783,40 +3789,40 @@
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A177" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="A178" s="5" t="s">
+      <c r="C177" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A178" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="A179" s="5" t="s">
+      <c r="C178" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A179" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21" hidden="1" customHeight="1">
+      <c r="C179" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="21" customHeight="1">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="181" spans="1:3" ht="21" customHeight="1">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="182" spans="1:3" ht="21" customHeight="1">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="183" spans="1:3" ht="21" customHeight="1">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="184" spans="1:3" ht="21" customHeight="1">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="185" spans="1:3" ht="21" customHeight="1">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3882,7 +3888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="186" spans="1:3" ht="21" customHeight="1">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="187" spans="1:3" ht="21" customHeight="1">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="188" spans="1:3" ht="21" customHeight="1">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3915,18 +3921,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="A189" s="5" t="s">
+    <row r="189" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A189" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="21" hidden="1" customHeight="1">
+      <c r="C189" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="21" customHeight="1">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="191" spans="1:3" ht="21" customHeight="1">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="192" spans="1:3" ht="21" customHeight="1">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="193" spans="1:3" ht="21" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -3970,7 +3976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="194" spans="1:3" ht="21" customHeight="1">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -3981,7 +3987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="195" spans="1:3" ht="21" customHeight="1">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="196" spans="1:3" ht="21" customHeight="1">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="197" spans="1:3" ht="21" customHeight="1">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4014,7 +4020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="198" spans="1:3" ht="21" customHeight="1">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4025,7 +4031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="199" spans="1:3" ht="21" customHeight="1">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="200" spans="1:3" ht="21" customHeight="1">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="201" spans="1:3" ht="21" customHeight="1">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="202" spans="1:3" ht="21" customHeight="1">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="203" spans="1:3" ht="21" customHeight="1">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="204" spans="1:3" ht="21" customHeight="1">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="205" spans="1:3" ht="21" customHeight="1">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4102,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="206" spans="1:3" ht="21" customHeight="1">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="207" spans="1:3" ht="21" customHeight="1">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="208" spans="1:3" ht="21" customHeight="1">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4135,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="209" spans="1:3" ht="21" customHeight="1">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="210" spans="1:3" ht="21" customHeight="1">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4157,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="211" spans="1:3" ht="21" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -6236,7 +6242,7 @@
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:4" ht="21">
+    <row r="410" spans="1:4" ht="21" hidden="1">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -6247,7 +6253,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="21">
+    <row r="411" spans="1:4" ht="21" hidden="1">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="21">
+    <row r="412" spans="1:4" ht="21" hidden="1">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6272,7 +6278,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="21">
+    <row r="413" spans="1:4" ht="21" hidden="1">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="21">
+    <row r="414" spans="1:4" ht="21" hidden="1">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="21">
+    <row r="415" spans="1:4" ht="21" hidden="1">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="21">
+    <row r="416" spans="1:4" ht="21" hidden="1">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6322,7 +6328,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="21">
+    <row r="417" spans="1:5" ht="21" hidden="1">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="21">
+    <row r="418" spans="1:5" ht="21" hidden="1">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="21">
+    <row r="419" spans="1:5" ht="21" hidden="1">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6364,7 +6370,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="21">
+    <row r="420" spans="1:5" ht="21" hidden="1">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="21">
+    <row r="421" spans="1:5" ht="21" hidden="1">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6389,7 +6395,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="21">
+    <row r="422" spans="1:5" ht="21" hidden="1">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="21">
+    <row r="423" spans="1:5" ht="21" hidden="1">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="21">
+    <row r="424" spans="1:5" ht="21" hidden="1">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="21">
+    <row r="425" spans="1:5" ht="21" hidden="1">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6439,7 +6445,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="21">
+    <row r="426" spans="1:5" ht="21" hidden="1">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="21">
+    <row r="427" spans="1:5" ht="21" hidden="1">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6464,7 +6470,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="21">
+    <row r="428" spans="1:5" ht="21" hidden="1">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="21">
+    <row r="429" spans="1:5" ht="21" hidden="1">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="21">
+    <row r="430" spans="1:5" ht="21" hidden="1">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6512,7 +6518,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="21">
+    <row r="431" spans="1:5" ht="21" hidden="1">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6523,7 +6529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="21">
+    <row r="432" spans="1:5" ht="21" hidden="1">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6537,18 +6543,21 @@
         <v>468</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="21">
+    <row r="433" spans="1:4" ht="21" hidden="1">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B433" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" ht="21">
+      <c r="C433" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D433" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="21" hidden="1">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6559,7 +6568,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="21">
+    <row r="435" spans="1:4" ht="21" hidden="1">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6570,7 +6579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="21">
+    <row r="436" spans="1:4" ht="21" hidden="1">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6581,7 +6590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="21">
+    <row r="437" spans="1:4" ht="21" hidden="1">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6595,7 +6604,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="21">
+    <row r="438" spans="1:4" ht="21" hidden="1">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="21">
+    <row r="439" spans="1:4" ht="21" hidden="1">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6617,7 +6626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="21">
+    <row r="440" spans="1:4" ht="21" hidden="1">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6628,7 +6637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="21">
+    <row r="441" spans="1:4" ht="21" hidden="1">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="21">
+    <row r="442" spans="1:4" ht="21" hidden="1">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6650,7 +6659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="21">
+    <row r="443" spans="1:4" ht="21" hidden="1">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6661,7 +6670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="21">
+    <row r="444" spans="1:4" ht="21" hidden="1">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6675,7 +6684,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="21">
+    <row r="445" spans="1:4" ht="21" hidden="1">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6686,7 +6695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="21">
+    <row r="446" spans="1:4" ht="21" hidden="1">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6697,7 +6706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="21">
+    <row r="447" spans="1:4" ht="21" hidden="1">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6708,7 +6717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="21">
+    <row r="448" spans="1:4" ht="21" hidden="1">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6719,7 +6728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row r="449" spans="1:3" ht="21" hidden="1">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6730,7 +6739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row r="450" spans="1:3" ht="21" hidden="1">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6741,7 +6750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row r="451" spans="1:3" ht="21" hidden="1">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6752,7 +6761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row r="452" spans="1:3" ht="21" hidden="1">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6763,7 +6772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row r="453" spans="1:3" ht="21" hidden="1">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6774,7 +6783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row r="454" spans="1:3" ht="21" hidden="1">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6785,7 +6794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row r="455" spans="1:3" ht="21" hidden="1">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6796,7 +6805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row r="456" spans="1:3" ht="21" hidden="1">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6807,7 +6816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row r="457" spans="1:3" ht="21" hidden="1">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6818,7 +6827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row r="458" spans="1:3" ht="21" hidden="1">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6829,7 +6838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row r="459" spans="1:3" ht="21" hidden="1">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6840,7 +6849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row r="460" spans="1:3" ht="21" hidden="1">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6851,7 +6860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row r="461" spans="1:3" ht="21" hidden="1">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6862,7 +6871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" spans="1:3" ht="21" hidden="1">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6873,7 +6882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" spans="1:3" ht="21" hidden="1">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6884,7 +6893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" spans="1:3" ht="21" hidden="1">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6895,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" spans="1:3" ht="21" hidden="1">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6906,7 +6915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" spans="1:3" ht="21" hidden="1">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6917,7 +6926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row r="467" spans="1:3" ht="21" hidden="1">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6928,7 +6937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row r="468" spans="1:3" ht="21" hidden="1">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -6939,7 +6948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" spans="1:3" ht="21" hidden="1">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -7073,7 +7082,7 @@
   <autoFilter ref="A1:E481">
     <filterColumn colId="0">
       <filters>
-        <filter val="Dynamic Programming"/>
+        <filter val="Binary Trees"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1944,8 +1944,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3932,15 +3932,15 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21" customHeight="1">
-      <c r="A190" s="5" t="s">
+    <row r="190" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A190" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>4</v>
+      <c r="C190" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$481</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="490">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1489,6 +1488,15 @@
   </si>
   <si>
     <t>partially</t>
+  </si>
+  <si>
+    <t>done in leetcode</t>
+  </si>
+  <si>
+    <t>by iteration left</t>
+  </si>
+  <si>
+    <t>Level order traverse and create extra class with map</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1626,6 +1634,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1944,8 +1957,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3789,7 +3802,7 @@
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="177" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A177" s="13" t="s">
         <v>171</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="178" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A178" s="13" t="s">
         <v>171</v>
       </c>
@@ -3811,7 +3824,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="179" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A179" s="13" t="s">
         <v>171</v>
       </c>
@@ -3822,106 +3835,124 @@
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21" customHeight="1">
-      <c r="A180" s="5" t="s">
+    <row r="180" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A180" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="21" customHeight="1">
-      <c r="A181" s="5" t="s">
+      <c r="C180" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A181" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="21" customHeight="1">
-      <c r="A182" s="5" t="s">
+      <c r="C181" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A182" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21" customHeight="1">
-      <c r="A183" s="5" t="s">
+      <c r="C182" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A183" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21" customHeight="1">
-      <c r="A184" s="5" t="s">
+      <c r="C183" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A184" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21" customHeight="1">
-      <c r="A185" s="5" t="s">
+      <c r="C184" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A185" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21" customHeight="1">
-      <c r="A186" s="5" t="s">
+      <c r="C185" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A186" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21" customHeight="1">
-      <c r="A187" s="5" t="s">
+      <c r="C186" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A187" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="21" customHeight="1">
-      <c r="A188" s="5" t="s">
+      <c r="C187" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A188" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="C188" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A189" s="13" t="s">
         <v>171</v>
       </c>
@@ -3932,7 +3963,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="190" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A190" s="13" t="s">
         <v>171</v>
       </c>
@@ -3943,7 +3974,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21" customHeight="1">
+    <row r="191" spans="1:4" ht="21" customHeight="1">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3954,7 +3985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21" customHeight="1">
+    <row r="192" spans="1:4" ht="21" customHeight="1">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="490">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1957,8 +1957,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3996,7 +3996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21" customHeight="1">
+    <row r="193" spans="1:4" ht="21" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21" customHeight="1">
+    <row r="194" spans="1:4" ht="21" customHeight="1">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21" customHeight="1">
+    <row r="195" spans="1:4" ht="21" customHeight="1">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21" customHeight="1">
+    <row r="196" spans="1:4" ht="21" customHeight="1">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21" customHeight="1">
+    <row r="197" spans="1:4" ht="21" customHeight="1">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21" customHeight="1">
+    <row r="198" spans="1:4" ht="21" customHeight="1">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21" customHeight="1">
+    <row r="199" spans="1:4" ht="21" customHeight="1">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21" customHeight="1">
+    <row r="200" spans="1:4" ht="21" customHeight="1">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21" customHeight="1">
+    <row r="201" spans="1:4" ht="21" customHeight="1">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21" customHeight="1">
+    <row r="202" spans="1:4" ht="21" customHeight="1">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21" customHeight="1">
+    <row r="203" spans="1:4" ht="21" customHeight="1">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21" customHeight="1">
+    <row r="204" spans="1:4" ht="21" customHeight="1">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21" customHeight="1">
+    <row r="205" spans="1:4" ht="21" customHeight="1">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21" customHeight="1">
+    <row r="206" spans="1:4" ht="21" customHeight="1">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4150,18 +4150,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21" customHeight="1">
-      <c r="A207" s="5" t="s">
+    <row r="207" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A207" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="21" customHeight="1">
+      <c r="C207" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21" customHeight="1">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="493">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1497,6 +1497,15 @@
   </si>
   <si>
     <t>Level order traverse and create extra class with map</t>
+  </si>
+  <si>
+    <t>moris traversal imp</t>
+  </si>
+  <si>
+    <t>take 1st diagonal as reference</t>
+  </si>
+  <si>
+    <t>tricky -&gt; boundary cases is tricky</t>
   </si>
 </sst>
 </file>
@@ -1957,8 +1966,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3802,7 +3811,7 @@
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="177" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A177" s="13" t="s">
         <v>171</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="178" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A178" s="13" t="s">
         <v>171</v>
       </c>
@@ -3824,7 +3833,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="179" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A179" s="13" t="s">
         <v>171</v>
       </c>
@@ -3835,7 +3844,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="180" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A180" s="13" t="s">
         <v>171</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="181" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A181" s="13" t="s">
         <v>171</v>
       </c>
@@ -3860,7 +3869,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="182" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
       <c r="A182" s="16" t="s">
         <v>171</v>
       </c>
@@ -3873,8 +3882,11 @@
       <c r="D182" s="18" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="E182" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
       <c r="A183" s="16" t="s">
         <v>171</v>
       </c>
@@ -3888,7 +3900,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="184" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
       <c r="A184" s="16" t="s">
         <v>171</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="185" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A185" s="13" t="s">
         <v>171</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="186" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A186" s="13" t="s">
         <v>171</v>
       </c>
@@ -3924,7 +3936,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="187" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A187" s="13" t="s">
         <v>171</v>
       </c>
@@ -3938,7 +3950,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="188" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A188" s="13" t="s">
         <v>171</v>
       </c>
@@ -3952,7 +3964,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="189" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A189" s="13" t="s">
         <v>171</v>
       </c>
@@ -3963,7 +3975,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="190" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A190" s="13" t="s">
         <v>171</v>
       </c>
@@ -3974,26 +3986,32 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="21" customHeight="1">
-      <c r="A191" s="5" t="s">
+    <row r="191" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A191" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="21" customHeight="1">
-      <c r="A192" s="5" t="s">
+      <c r="C191" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A192" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>4</v>
+      <c r="C192" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="21" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1966,8 +1966,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4036,14 +4036,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="21" customHeight="1">
-      <c r="A195" s="5" t="s">
+    <row r="195" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A195" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4080,15 +4080,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="21" customHeight="1">
-      <c r="A199" s="5" t="s">
+    <row r="199" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A199" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>4</v>
+      <c r="C199" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="21" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="494">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1506,6 +1506,9 @@
   </si>
   <si>
     <t>tricky -&gt; boundary cases is tricky</t>
+  </si>
+  <si>
+    <t>inprogress</t>
   </si>
 </sst>
 </file>
@@ -1966,8 +1969,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3882,7 +3885,7 @@
       <c r="D182" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="E182" s="15" t="s">
+      <c r="E182" s="18" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4113,15 +4116,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="21" customHeight="1">
-      <c r="A202" s="5" t="s">
+    <row r="202" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A202" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>4</v>
+      <c r="C202" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="21" customHeight="1">
@@ -4168,17 +4171,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A207" s="16" t="s">
+    <row r="207" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A207" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B207" s="17" t="s">
+      <c r="B207" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C207" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D207" s="18" t="s">
+      <c r="D207" s="15" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4215,14 +4218,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21" customHeight="1">
-      <c r="A211" s="5" t="s">
+    <row r="211" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A211" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1969,8 +1969,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4050,14 +4050,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="21" customHeight="1">
-      <c r="A196" s="5" t="s">
+    <row r="196" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A196" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1509,6 +1509,12 @@
   </si>
   <si>
     <t>inprogress</t>
+  </si>
+  <si>
+    <t>inorder -&gt;swap</t>
+  </si>
+  <si>
+    <t>reverse 2nd list by parent node and compare both list</t>
   </si>
 </sst>
 </file>
@@ -1969,8 +1975,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:XFD196"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4003,17 +4009,17 @@
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A192" s="16" t="s">
+    <row r="192" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A192" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C192" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="15" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4047,7 +4053,7 @@
         <v>190</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
@@ -4058,29 +4064,35 @@
         <v>191</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="21" customHeight="1">
-      <c r="A197" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A197" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="21" customHeight="1">
-      <c r="A198" s="5" t="s">
+      <c r="C197" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A198" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>4</v>
+      <c r="C198" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
@@ -4094,26 +4106,29 @@
         <v>465</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="21" customHeight="1">
-      <c r="A200" s="5" t="s">
+    <row r="200" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A200" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="21" customHeight="1">
-      <c r="A201" s="5" t="s">
+      <c r="C200" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A201" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>4</v>
+      <c r="C201" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1508,13 +1508,13 @@
     <t>tricky -&gt; boundary cases is tricky</t>
   </si>
   <si>
-    <t>inprogress</t>
-  </si>
-  <si>
     <t>inorder -&gt;swap</t>
   </si>
   <si>
     <t>reverse 2nd list by parent node and compare both list</t>
+  </si>
+  <si>
+    <t>create a class with h and sum and compare</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1603,6 +1603,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1617,7 +1623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1657,6 +1663,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1976,7 +1990,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4081,7 +4095,7 @@
         <v>465</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
@@ -4128,18 +4142,21 @@
         <v>465</v>
       </c>
       <c r="D201" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A202" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D202" s="15" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A202" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B202" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="21" customHeight="1">
@@ -4153,15 +4170,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="21" customHeight="1">
-      <c r="A204" s="5" t="s">
+    <row r="204" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A204" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>4</v>
+      <c r="C204" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="21" customHeight="1">
@@ -4233,14 +4250,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A211" s="13" t="s">
+    <row r="211" spans="1:3" s="22" customFormat="1" ht="21" customHeight="1">
+      <c r="A211" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B211" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="21" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="499">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1515,6 +1515,15 @@
   </si>
   <si>
     <t>create a class with h and sum and compare</t>
+  </si>
+  <si>
+    <t>1.) lca-&gt;a+lca-&gt;b 2.)root-&gt;a+root-&gt;b-root-&gt;lca 3.) code</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+  <si>
+    <t>didn’t get the gfg solution</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,8 +1998,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4217,40 +4226,49 @@
         <v>474</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="21" customHeight="1">
-      <c r="A208" s="5" t="s">
+    <row r="208" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A208" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21" customHeight="1">
-      <c r="A209" s="5" t="s">
+      <c r="C208" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D208" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A209" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21" customHeight="1">
-      <c r="A210" s="5" t="s">
+      <c r="C209" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A210" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" s="22" customFormat="1" ht="21" customHeight="1">
+      <c r="C210" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="22" customFormat="1" ht="21" customHeight="1">
       <c r="A211" s="19" t="s">
         <v>171</v>
       </c>
@@ -4258,20 +4276,20 @@
         <v>206</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21" hidden="1" customHeight="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="213" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="214" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4282,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="215" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4293,7 +4311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="216" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4304,7 +4322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="217" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4315,7 +4333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="218" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4326,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="219" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="220" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4348,7 +4366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="221" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4359,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="222" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4370,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="223" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4381,7 +4399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="224" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="501">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1517,13 +1517,19 @@
     <t>create a class with h and sum and compare</t>
   </si>
   <si>
-    <t>1.) lca-&gt;a+lca-&gt;b 2.)root-&gt;a+root-&gt;b-root-&gt;lca 3.) code</t>
-  </si>
-  <si>
     <t>inprogress</t>
   </si>
   <si>
     <t>didn’t get the gfg solution</t>
+  </si>
+  <si>
+    <t>Approch no. 1.) lca-&gt;a+lca-&gt;b 2.)root-&gt;a+root-&gt;b-root-&gt;lca 3.) in git code</t>
+  </si>
+  <si>
+    <t>Search for correct method to create as per interview</t>
+  </si>
+  <si>
+    <t>Use queue and visited array</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1680,6 +1686,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1998,8 +2010,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D357" sqref="D357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3843,7 +3855,7 @@
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="177" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A177" s="13" t="s">
         <v>171</v>
       </c>
@@ -3854,7 +3866,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="178" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A178" s="13" t="s">
         <v>171</v>
       </c>
@@ -3865,7 +3877,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="179" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A179" s="13" t="s">
         <v>171</v>
       </c>
@@ -3876,7 +3888,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="180" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A180" s="13" t="s">
         <v>171</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="181" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A181" s="13" t="s">
         <v>171</v>
       </c>
@@ -3901,7 +3913,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="182" spans="1:5" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A182" s="16" t="s">
         <v>171</v>
       </c>
@@ -3918,7 +3930,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="183" spans="1:5" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A183" s="16" t="s">
         <v>171</v>
       </c>
@@ -3932,7 +3944,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="184" spans="1:5" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A184" s="16" t="s">
         <v>171</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="185" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A185" s="13" t="s">
         <v>171</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="186" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A186" s="13" t="s">
         <v>171</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="187" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A187" s="13" t="s">
         <v>171</v>
       </c>
@@ -3982,7 +3994,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="188" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A188" s="13" t="s">
         <v>171</v>
       </c>
@@ -3996,7 +4008,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="189" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A189" s="13" t="s">
         <v>171</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="190" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A190" s="13" t="s">
         <v>171</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="191" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A191" s="13" t="s">
         <v>171</v>
       </c>
@@ -4032,7 +4044,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="192" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A192" s="13" t="s">
         <v>171</v>
       </c>
@@ -4046,7 +4058,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="21" customHeight="1">
+    <row r="193" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4057,18 +4069,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="21" customHeight="1">
-      <c r="A194" s="5" t="s">
+    <row r="194" spans="1:4" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
+      <c r="A194" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="17" t="s">
         <v>189</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="195" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A195" s="13" t="s">
         <v>171</v>
       </c>
@@ -4079,7 +4091,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="196" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A196" s="13" t="s">
         <v>171</v>
       </c>
@@ -4093,7 +4105,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="197" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A197" s="13" t="s">
         <v>171</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="198" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A198" s="13" t="s">
         <v>171</v>
       </c>
@@ -4118,7 +4130,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="199" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A199" s="13" t="s">
         <v>171</v>
       </c>
@@ -4129,7 +4141,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="200" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A200" s="13" t="s">
         <v>171</v>
       </c>
@@ -4140,7 +4152,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="201" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A201" s="13" t="s">
         <v>171</v>
       </c>
@@ -4154,7 +4166,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="202" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A202" s="13" t="s">
         <v>171</v>
       </c>
@@ -4168,7 +4180,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="21" customHeight="1">
+    <row r="203" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4179,7 +4191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="204" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A204" s="13" t="s">
         <v>171</v>
       </c>
@@ -4190,18 +4202,18 @@
         <v>465</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="21" customHeight="1">
-      <c r="A205" s="5" t="s">
+    <row r="205" spans="1:4" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
+      <c r="A205" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="17" t="s">
         <v>200</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="21" customHeight="1">
+    <row r="206" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4212,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="207" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A207" s="13" t="s">
         <v>171</v>
       </c>
@@ -4226,7 +4238,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+    <row r="208" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A208" s="13" t="s">
         <v>171</v>
       </c>
@@ -4237,10 +4249,10 @@
         <v>465</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A209" s="16" t="s">
         <v>171</v>
       </c>
@@ -4248,13 +4260,13 @@
         <v>204</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D209" s="18" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="210" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="210" spans="1:4" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A210" s="16" t="s">
         <v>171</v>
       </c>
@@ -4262,13 +4274,13 @@
         <v>205</v>
       </c>
       <c r="C210" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D210" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="D210" s="18" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" s="22" customFormat="1" ht="21" customHeight="1">
+    </row>
+    <row r="211" spans="1:4" s="22" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A211" s="19" t="s">
         <v>171</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="353" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5773,37 +5785,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="354" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="355" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="A356" s="8" t="s">
+    <row r="356" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A356" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B356" s="6" t="s">
+      <c r="B356" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C356" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="A357" s="8" t="s">
+      <c r="C356" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D356" s="18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A357" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B357" s="6" t="s">
+      <c r="B357" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C357" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="21" hidden="1" customHeight="1">
+      <c r="C357" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D357" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="21" customHeight="1">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5814,7 +5832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="359" spans="1:4" ht="21" customHeight="1">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5825,7 +5843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="360" spans="1:4" ht="21" customHeight="1">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5836,7 +5854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="361" spans="1:4" ht="21" customHeight="1">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="362" spans="1:4" ht="21" customHeight="1">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5858,7 +5876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="363" spans="1:4" ht="21" customHeight="1">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5869,7 +5887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="364" spans="1:4" ht="21" customHeight="1">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5880,7 +5898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="365" spans="1:4" ht="21" customHeight="1">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5891,7 +5909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="366" spans="1:4" ht="21" customHeight="1">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5902,7 +5920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="367" spans="1:4" ht="21" customHeight="1">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5913,7 +5931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="368" spans="1:4" ht="21" customHeight="1">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5924,7 +5942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="369" spans="1:3" ht="21" customHeight="1">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5935,7 +5953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="370" spans="1:3" ht="21" customHeight="1">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5946,7 +5964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="371" spans="1:3" ht="21" customHeight="1">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5957,7 +5975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="372" spans="1:3" ht="21" customHeight="1">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5968,7 +5986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="373" spans="1:3" ht="21" customHeight="1">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5979,7 +5997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="374" spans="1:3" ht="21" customHeight="1">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5990,7 +6008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="375" spans="1:3" ht="21" customHeight="1">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -6001,7 +6019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="376" spans="1:3" ht="21" customHeight="1">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -6012,7 +6030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="377" spans="1:3" ht="21" customHeight="1">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -6023,7 +6041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="378" spans="1:3" ht="21" customHeight="1">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -6034,7 +6052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="379" spans="1:3" ht="21" customHeight="1">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -6045,7 +6063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="380" spans="1:3" ht="21" customHeight="1">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -6056,7 +6074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="381" spans="1:3" ht="21" customHeight="1">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -6067,7 +6085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="382" spans="1:3" ht="21" customHeight="1">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -6078,7 +6096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="383" spans="1:3" ht="21" customHeight="1">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -6089,7 +6107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="384" spans="1:3" ht="21" customHeight="1">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -6100,7 +6118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="385" spans="1:3" ht="21" customHeight="1">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -6111,7 +6129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="386" spans="1:3" ht="21" customHeight="1">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -6122,7 +6140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="387" spans="1:3" ht="21" customHeight="1">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -6133,7 +6151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="388" spans="1:3" ht="21" customHeight="1">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -6144,7 +6162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="389" spans="1:3" ht="21" customHeight="1">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -6155,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="390" spans="1:3" ht="21" customHeight="1">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -6166,7 +6184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="391" spans="1:3" ht="21" customHeight="1">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -6177,7 +6195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="392" spans="1:3" ht="21" customHeight="1">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6188,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="393" spans="1:3" ht="21" customHeight="1">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6199,7 +6217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="394" spans="1:3" ht="21" customHeight="1">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6210,7 +6228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="395" spans="1:3" ht="21" customHeight="1">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6221,7 +6239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="396" spans="1:3" ht="21" customHeight="1">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6232,7 +6250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="397" spans="1:3" ht="21" customHeight="1">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6243,7 +6261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="398" spans="1:3" ht="21" customHeight="1">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6254,7 +6272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21" hidden="1" customHeight="1">
+    <row r="399" spans="1:3" ht="21" customHeight="1">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -7187,7 +7205,7 @@
   <autoFilter ref="A1:E481">
     <filterColumn colId="0">
       <filters>
-        <filter val="Binary Trees"/>
+        <filter val="Graph"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="502">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1529,7 +1529,10 @@
     <t>Search for correct method to create as per interview</t>
   </si>
   <si>
-    <t>Use queue and visited array</t>
+    <t>recurssion and visitor array</t>
+  </si>
+  <si>
+    <t>Use queue and visitor array</t>
   </si>
 </sst>
 </file>
@@ -5818,18 +5821,21 @@
         <v>465</v>
       </c>
       <c r="D357" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A358" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B358" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D358" s="15" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="21" customHeight="1">
-      <c r="A358" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="21" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$482</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="506">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1097,9 +1097,6 @@
     <t>Dijkstra algo</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement Topological Sort </t>
-  </si>
-  <si>
     <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
   </si>
   <si>
@@ -1533,6 +1530,21 @@
   </si>
   <si>
     <t>Use queue and visitor array</t>
+  </si>
+  <si>
+    <t>using dfs done</t>
+  </si>
+  <si>
+    <t>Implement Topological Sort DFS</t>
+  </si>
+  <si>
+    <t>Implement Topological Sort BFS</t>
+  </si>
+  <si>
+    <t>Kans Algo(using indegree array &amp; queue)</t>
+  </si>
+  <si>
+    <t>using dfs done(using vissitor array &amp;stack)</t>
   </si>
 </sst>
 </file>
@@ -2011,10 +2023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D357" sqref="D357"/>
+      <selection activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2032,7 +2044,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" hidden="1" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" hidden="1" customHeight="1"/>
@@ -3866,7 +3878,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3877,7 +3889,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3888,7 +3900,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3899,7 +3911,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3910,10 +3922,10 @@
         <v>176</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3924,13 +3936,13 @@
         <v>177</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3941,10 +3953,10 @@
         <v>178</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3955,10 +3967,10 @@
         <v>179</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3969,7 +3981,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3980,7 +3992,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -3991,10 +4003,10 @@
         <v>182</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4005,10 +4017,10 @@
         <v>183</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4019,7 +4031,7 @@
         <v>184</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4030,7 +4042,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4041,10 +4053,10 @@
         <v>186</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="1:5" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4055,10 +4067,10 @@
         <v>187</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="21" hidden="1" customHeight="1">
@@ -4091,7 +4103,7 @@
         <v>190</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4102,10 +4114,10 @@
         <v>191</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4116,10 +4128,10 @@
         <v>192</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4130,7 +4142,7 @@
         <v>193</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4141,7 +4153,7 @@
         <v>194</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4152,7 +4164,7 @@
         <v>195</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4163,10 +4175,10 @@
         <v>196</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4177,10 +4189,10 @@
         <v>197</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="21" hidden="1" customHeight="1">
@@ -4202,7 +4214,7 @@
         <v>199</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4235,10 +4247,10 @@
         <v>202</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4249,10 +4261,10 @@
         <v>203</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4263,10 +4275,10 @@
         <v>204</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4277,10 +4289,10 @@
         <v>205</v>
       </c>
       <c r="C210" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D210" s="18" t="s">
         <v>496</v>
-      </c>
-      <c r="D210" s="18" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="22" customFormat="1" ht="21" hidden="1" customHeight="1">
@@ -4291,7 +4303,7 @@
         <v>206</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21" hidden="1" customHeight="1">
@@ -5804,10 +5816,10 @@
         <v>344</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D356" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="357" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
@@ -5818,10 +5830,10 @@
         <v>345</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="358" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
@@ -5832,31 +5844,34 @@
         <v>346</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D358" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="21" customHeight="1">
-      <c r="A359" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A359" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B359" s="6" t="s">
+      <c r="B359" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C359" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" ht="21" customHeight="1">
-      <c r="A360" s="8" t="s">
+      <c r="C359" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D359" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A360" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B360" s="6" t="s">
+      <c r="B360" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C360" s="4" t="s">
+      <c r="C360" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5937,188 +5952,194 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="21" customHeight="1">
-      <c r="A368" s="8" t="s">
+    <row r="368" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A368" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B368" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="21" customHeight="1">
-      <c r="A369" s="8" t="s">
+      <c r="B368" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A369" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B369" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C369" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="21" customHeight="1">
+      <c r="B369" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="21" customHeight="1">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21" customHeight="1">
+    <row r="371" spans="1:4" ht="21" customHeight="1">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21" customHeight="1">
+    <row r="372" spans="1:4" ht="21" customHeight="1">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21" customHeight="1">
+    <row r="373" spans="1:4" ht="21" customHeight="1">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21" customHeight="1">
+    <row r="374" spans="1:4" ht="21" customHeight="1">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21" customHeight="1">
+    <row r="375" spans="1:4" ht="21" customHeight="1">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21" customHeight="1">
+    <row r="376" spans="1:4" ht="21" customHeight="1">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21" customHeight="1">
+    <row r="377" spans="1:4" ht="21" customHeight="1">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21" customHeight="1">
+    <row r="378" spans="1:4" ht="21" customHeight="1">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21" customHeight="1">
+    <row r="379" spans="1:4" ht="21" customHeight="1">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21" customHeight="1">
+    <row r="380" spans="1:4" ht="21" customHeight="1">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21" customHeight="1">
+    <row r="381" spans="1:4" ht="21" customHeight="1">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21" customHeight="1">
+    <row r="382" spans="1:4" ht="21" customHeight="1">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21" customHeight="1">
+    <row r="383" spans="1:4" ht="21" customHeight="1">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21" customHeight="1">
+    <row r="384" spans="1:4" ht="21" customHeight="1">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -6129,7 +6150,7 @@
         <v>343</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -6140,7 +6161,7 @@
         <v>343</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -6151,7 +6172,7 @@
         <v>343</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -6162,7 +6183,7 @@
         <v>343</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -6173,7 +6194,7 @@
         <v>343</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -6184,7 +6205,7 @@
         <v>343</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -6195,7 +6216,7 @@
         <v>343</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -6206,7 +6227,7 @@
         <v>343</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -6217,7 +6238,7 @@
         <v>343</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6228,7 +6249,7 @@
         <v>343</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6239,7 +6260,7 @@
         <v>343</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6250,7 +6271,7 @@
         <v>343</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6261,7 +6282,7 @@
         <v>343</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6272,7 +6293,7 @@
         <v>343</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6283,37 +6304,37 @@
         <v>343</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="B400" s="7"/>
-      <c r="C400" s="4"/>
+    <row r="400" spans="1:3" ht="21" customHeight="1">
+      <c r="A400" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="401" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A402" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B402" s="7"/>
+      <c r="C402" s="4"/>
     </row>
     <row r="403" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A403" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B403" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6321,10 +6342,10 @@
     </row>
     <row r="404" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6332,10 +6353,10 @@
     </row>
     <row r="405" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6343,10 +6364,10 @@
     </row>
     <row r="406" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6354,76 +6375,76 @@
     </row>
     <row r="407" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="B408" s="7"/>
-      <c r="C408" s="4"/>
+      <c r="A408" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="409" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:4" ht="21" hidden="1">
-      <c r="A410" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C410" s="11" t="s">
-        <v>465</v>
-      </c>
+    <row r="410" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="B410" s="7"/>
+      <c r="C410" s="4"/>
     </row>
     <row r="411" spans="1:4" ht="21" hidden="1">
       <c r="A411" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B411" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B411" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="C411" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="21" hidden="1">
       <c r="A412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D412" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="21" hidden="1">
       <c r="A413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
+        <v>395</v>
+      </c>
+      <c r="C413" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D413" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="21" hidden="1">
       <c r="A414" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6431,289 +6452,289 @@
     </row>
     <row r="415" spans="1:4" ht="21" hidden="1">
       <c r="A415" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C415" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D415" t="s">
-        <v>467</v>
+        <v>397</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="21" hidden="1">
       <c r="A416" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D416" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="21" hidden="1">
       <c r="A417" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D417" t="s">
-        <v>475</v>
-      </c>
-      <c r="E417" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="21" hidden="1">
       <c r="A418" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D418" t="s">
-        <v>477</v>
+        <v>474</v>
+      </c>
+      <c r="E418" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="21" hidden="1">
       <c r="A419" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
+      </c>
+      <c r="D419" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="21" hidden="1">
       <c r="A420" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>4</v>
+        <v>401</v>
+      </c>
+      <c r="C420" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="21" hidden="1">
       <c r="A421" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C421" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D421" t="s">
-        <v>478</v>
+        <v>402</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="21" hidden="1">
       <c r="A422" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
+      </c>
+      <c r="D422" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="21" hidden="1">
       <c r="A423" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="21" hidden="1">
       <c r="A424" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="21" hidden="1">
       <c r="A425" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D425" t="s">
-        <v>482</v>
-      </c>
-      <c r="E425" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="21" hidden="1">
       <c r="A426" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C426" s="4" t="s">
-        <v>4</v>
+        <v>407</v>
+      </c>
+      <c r="C426" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D426" t="s">
+        <v>481</v>
+      </c>
+      <c r="E426" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="21" hidden="1">
       <c r="A427" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C427" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D427" t="s">
-        <v>469</v>
+        <v>408</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="21" hidden="1">
       <c r="A428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C428" s="12" t="s">
-        <v>479</v>
+        <v>409</v>
+      </c>
+      <c r="C428" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="D428" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="21" hidden="1">
       <c r="A429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C429" s="11" t="s">
-        <v>465</v>
+        <v>410</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="D429" t="s">
-        <v>474</v>
-      </c>
-      <c r="E429" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="21" hidden="1">
       <c r="A430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D430" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E430" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="21" hidden="1">
       <c r="A431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>4</v>
+        <v>412</v>
+      </c>
+      <c r="C431" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D431" t="s">
+        <v>483</v>
+      </c>
+      <c r="E431" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="21" hidden="1">
       <c r="A432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C432" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D432" t="s">
-        <v>468</v>
+        <v>413</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="21" hidden="1">
       <c r="A433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C433" s="12" t="s">
-        <v>486</v>
+        <v>414</v>
+      </c>
+      <c r="C433" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="D433" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="21" hidden="1">
       <c r="A434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C434" s="11" t="s">
-        <v>465</v>
+        <v>415</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D434" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="21" hidden="1">
       <c r="A435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>4</v>
+        <v>416</v>
+      </c>
+      <c r="C435" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="21" hidden="1">
       <c r="A436" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6721,35 +6742,35 @@
     </row>
     <row r="437" spans="1:4" ht="21" hidden="1">
       <c r="A437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C437" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D437" t="s">
-        <v>481</v>
+        <v>418</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="21" hidden="1">
       <c r="A438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C438" s="4" t="s">
-        <v>4</v>
+        <v>419</v>
+      </c>
+      <c r="C438" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D438" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="21" hidden="1">
       <c r="A439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6757,10 +6778,10 @@
     </row>
     <row r="440" spans="1:4" ht="21" hidden="1">
       <c r="A440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6768,10 +6789,10 @@
     </row>
     <row r="441" spans="1:4" ht="21" hidden="1">
       <c r="A441" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6779,10 +6800,10 @@
     </row>
     <row r="442" spans="1:4" ht="21" hidden="1">
       <c r="A442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6790,10 +6811,10 @@
     </row>
     <row r="443" spans="1:4" ht="21" hidden="1">
       <c r="A443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6801,35 +6822,35 @@
     </row>
     <row r="444" spans="1:4" ht="21" hidden="1">
       <c r="A444" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C444" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D444" t="s">
-        <v>472</v>
+        <v>425</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="21" hidden="1">
       <c r="A445" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C445" s="4" t="s">
-        <v>4</v>
+        <v>426</v>
+      </c>
+      <c r="C445" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D445" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="21" hidden="1">
       <c r="A446" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6837,10 +6858,10 @@
     </row>
     <row r="447" spans="1:4" ht="21" hidden="1">
       <c r="A447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6848,10 +6869,10 @@
     </row>
     <row r="448" spans="1:4" ht="21" hidden="1">
       <c r="A448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6859,10 +6880,10 @@
     </row>
     <row r="449" spans="1:3" ht="21" hidden="1">
       <c r="A449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6870,10 +6891,10 @@
     </row>
     <row r="450" spans="1:3" ht="21" hidden="1">
       <c r="A450" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6881,10 +6902,10 @@
     </row>
     <row r="451" spans="1:3" ht="21" hidden="1">
       <c r="A451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6892,10 +6913,10 @@
     </row>
     <row r="452" spans="1:3" ht="21" hidden="1">
       <c r="A452" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6903,10 +6924,10 @@
     </row>
     <row r="453" spans="1:3" ht="21" hidden="1">
       <c r="A453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6914,10 +6935,10 @@
     </row>
     <row r="454" spans="1:3" ht="21" hidden="1">
       <c r="A454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6925,10 +6946,10 @@
     </row>
     <row r="455" spans="1:3" ht="21" hidden="1">
       <c r="A455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6936,10 +6957,10 @@
     </row>
     <row r="456" spans="1:3" ht="21" hidden="1">
       <c r="A456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6947,10 +6968,10 @@
     </row>
     <row r="457" spans="1:3" ht="21" hidden="1">
       <c r="A457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6958,10 +6979,10 @@
     </row>
     <row r="458" spans="1:3" ht="21" hidden="1">
       <c r="A458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6969,10 +6990,10 @@
     </row>
     <row r="459" spans="1:3" ht="21" hidden="1">
       <c r="A459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6980,10 +7001,10 @@
     </row>
     <row r="460" spans="1:3" ht="21" hidden="1">
       <c r="A460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6991,10 +7012,10 @@
     </row>
     <row r="461" spans="1:3" ht="21" hidden="1">
       <c r="A461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -7002,10 +7023,10 @@
     </row>
     <row r="462" spans="1:3" ht="21" hidden="1">
       <c r="A462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -7013,10 +7034,10 @@
     </row>
     <row r="463" spans="1:3" ht="21" hidden="1">
       <c r="A463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -7024,10 +7045,10 @@
     </row>
     <row r="464" spans="1:3" ht="21" hidden="1">
       <c r="A464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7035,10 +7056,10 @@
     </row>
     <row r="465" spans="1:3" ht="21" hidden="1">
       <c r="A465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7046,10 +7067,10 @@
     </row>
     <row r="466" spans="1:3" ht="21" hidden="1">
       <c r="A466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7057,10 +7078,10 @@
     </row>
     <row r="467" spans="1:3" ht="21" hidden="1">
       <c r="A467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7068,10 +7089,10 @@
     </row>
     <row r="468" spans="1:3" ht="21" hidden="1">
       <c r="A468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7079,41 +7100,41 @@
     </row>
     <row r="469" spans="1:3" ht="21" hidden="1">
       <c r="A469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="B470" s="7"/>
-      <c r="C470" s="4"/>
+    <row r="470" spans="1:3" ht="21" hidden="1">
+      <c r="A470" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="471" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" hidden="1" customHeight="1">
-      <c r="A472" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A472" s="8"/>
+      <c r="B472" s="7"/>
+      <c r="C472" s="4"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A473" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B473" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7121,10 +7142,10 @@
     </row>
     <row r="474" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7132,10 +7153,10 @@
     </row>
     <row r="475" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7143,10 +7164,10 @@
     </row>
     <row r="476" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7154,10 +7175,10 @@
     </row>
     <row r="477" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7165,10 +7186,10 @@
     </row>
     <row r="478" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7176,10 +7197,10 @@
     </row>
     <row r="479" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7187,10 +7208,10 @@
     </row>
     <row r="480" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7198,17 +7219,28 @@
     </row>
     <row r="481" spans="1:3" ht="21" hidden="1" customHeight="1">
       <c r="A481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="482" spans="1:3" ht="21" hidden="1" customHeight="1">
+      <c r="A482" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E481">
+  <autoFilter ref="A1:E482">
     <filterColumn colId="0">
       <filters>
         <filter val="Graph"/>
@@ -7552,118 +7584,119 @@
     <hyperlink ref="B365" r:id="rId334"/>
     <hyperlink ref="B366" r:id="rId335"/>
     <hyperlink ref="B367" r:id="rId336"/>
-    <hyperlink ref="B368" r:id="rId337"/>
-    <hyperlink ref="B369" r:id="rId338"/>
-    <hyperlink ref="B370" r:id="rId339"/>
-    <hyperlink ref="B371" r:id="rId340"/>
-    <hyperlink ref="B372" r:id="rId341"/>
-    <hyperlink ref="B373" r:id="rId342"/>
-    <hyperlink ref="B374" r:id="rId343"/>
-    <hyperlink ref="B375" r:id="rId344"/>
-    <hyperlink ref="B376" r:id="rId345"/>
-    <hyperlink ref="B377" r:id="rId346"/>
-    <hyperlink ref="B378" r:id="rId347"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId349"/>
-    <hyperlink ref="B381" r:id="rId350"/>
-    <hyperlink ref="B382" r:id="rId351"/>
-    <hyperlink ref="B383" r:id="rId352"/>
-    <hyperlink ref="B384" r:id="rId353"/>
-    <hyperlink ref="B385" r:id="rId354"/>
-    <hyperlink ref="B386" r:id="rId355"/>
-    <hyperlink ref="B387" r:id="rId356"/>
-    <hyperlink ref="B388" r:id="rId357"/>
-    <hyperlink ref="B389" r:id="rId358"/>
-    <hyperlink ref="B390" r:id="rId359"/>
-    <hyperlink ref="B391" r:id="rId360"/>
-    <hyperlink ref="B392" r:id="rId361"/>
-    <hyperlink ref="B393" r:id="rId362"/>
-    <hyperlink ref="B394" r:id="rId363"/>
-    <hyperlink ref="B396" r:id="rId364"/>
-    <hyperlink ref="B395" r:id="rId365"/>
-    <hyperlink ref="B397" r:id="rId366"/>
-    <hyperlink ref="B398" r:id="rId367"/>
-    <hyperlink ref="B399" r:id="rId368"/>
-    <hyperlink ref="B402" r:id="rId369"/>
-    <hyperlink ref="B403" r:id="rId370"/>
-    <hyperlink ref="B404" r:id="rId371"/>
-    <hyperlink ref="B405" r:id="rId372"/>
-    <hyperlink ref="B406" r:id="rId373"/>
-    <hyperlink ref="B407" r:id="rId374"/>
-    <hyperlink ref="B410" r:id="rId375"/>
-    <hyperlink ref="B411" r:id="rId376"/>
-    <hyperlink ref="B412" r:id="rId377"/>
-    <hyperlink ref="B413" r:id="rId378"/>
-    <hyperlink ref="B414" r:id="rId379"/>
-    <hyperlink ref="B415" r:id="rId380"/>
-    <hyperlink ref="B416" r:id="rId381"/>
-    <hyperlink ref="B417" r:id="rId382"/>
-    <hyperlink ref="B418" r:id="rId383"/>
-    <hyperlink ref="B419" r:id="rId384"/>
-    <hyperlink ref="B420" r:id="rId385"/>
-    <hyperlink ref="B421" r:id="rId386"/>
-    <hyperlink ref="B422" r:id="rId387"/>
-    <hyperlink ref="B423" r:id="rId388"/>
-    <hyperlink ref="B424" r:id="rId389"/>
-    <hyperlink ref="B425" r:id="rId390"/>
-    <hyperlink ref="B426" r:id="rId391"/>
-    <hyperlink ref="B427" r:id="rId392"/>
-    <hyperlink ref="B428" r:id="rId393"/>
-    <hyperlink ref="B429" r:id="rId394"/>
-    <hyperlink ref="B430" r:id="rId395"/>
-    <hyperlink ref="B431" r:id="rId396"/>
-    <hyperlink ref="B432" r:id="rId397"/>
-    <hyperlink ref="B433" r:id="rId398"/>
-    <hyperlink ref="B434" r:id="rId399"/>
-    <hyperlink ref="B435" r:id="rId400"/>
-    <hyperlink ref="B436" r:id="rId401"/>
-    <hyperlink ref="B437" r:id="rId402"/>
-    <hyperlink ref="B438" r:id="rId403"/>
-    <hyperlink ref="B439" r:id="rId404"/>
-    <hyperlink ref="B440" r:id="rId405"/>
-    <hyperlink ref="B441" r:id="rId406"/>
-    <hyperlink ref="B442" r:id="rId407"/>
-    <hyperlink ref="B443" r:id="rId408"/>
-    <hyperlink ref="B444" r:id="rId409"/>
-    <hyperlink ref="B445" r:id="rId410"/>
-    <hyperlink ref="B446" r:id="rId411"/>
-    <hyperlink ref="B447" r:id="rId412"/>
-    <hyperlink ref="B448" r:id="rId413"/>
-    <hyperlink ref="B449" r:id="rId414"/>
-    <hyperlink ref="B451" r:id="rId415"/>
-    <hyperlink ref="B450" r:id="rId416"/>
-    <hyperlink ref="B452" r:id="rId417"/>
-    <hyperlink ref="B453" r:id="rId418"/>
-    <hyperlink ref="B454" r:id="rId419"/>
-    <hyperlink ref="B455" r:id="rId420"/>
-    <hyperlink ref="B456" r:id="rId421"/>
-    <hyperlink ref="B457" r:id="rId422"/>
-    <hyperlink ref="B458" r:id="rId423"/>
-    <hyperlink ref="B459" r:id="rId424"/>
-    <hyperlink ref="B460" r:id="rId425"/>
-    <hyperlink ref="B461" r:id="rId426"/>
-    <hyperlink ref="B462" r:id="rId427"/>
-    <hyperlink ref="B469" r:id="rId428"/>
-    <hyperlink ref="B468" r:id="rId429"/>
-    <hyperlink ref="B467" r:id="rId430"/>
-    <hyperlink ref="B466" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B464" r:id="rId433"/>
-    <hyperlink ref="B463" r:id="rId434"/>
-    <hyperlink ref="B472" r:id="rId435"/>
-    <hyperlink ref="B473" r:id="rId436"/>
-    <hyperlink ref="B474" r:id="rId437"/>
-    <hyperlink ref="B475" r:id="rId438"/>
-    <hyperlink ref="B476" r:id="rId439"/>
-    <hyperlink ref="B477" r:id="rId440"/>
-    <hyperlink ref="B478" r:id="rId441"/>
-    <hyperlink ref="B481" r:id="rId442"/>
-    <hyperlink ref="B479" r:id="rId443"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B368" r:id="rId337" display="Implement Topological Sort "/>
+    <hyperlink ref="B370" r:id="rId338"/>
+    <hyperlink ref="B371" r:id="rId339"/>
+    <hyperlink ref="B372" r:id="rId340"/>
+    <hyperlink ref="B373" r:id="rId341"/>
+    <hyperlink ref="B374" r:id="rId342"/>
+    <hyperlink ref="B375" r:id="rId343"/>
+    <hyperlink ref="B376" r:id="rId344"/>
+    <hyperlink ref="B377" r:id="rId345"/>
+    <hyperlink ref="B378" r:id="rId346"/>
+    <hyperlink ref="B379" r:id="rId347"/>
+    <hyperlink ref="B380" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B381" r:id="rId349"/>
+    <hyperlink ref="B382" r:id="rId350"/>
+    <hyperlink ref="B383" r:id="rId351"/>
+    <hyperlink ref="B384" r:id="rId352"/>
+    <hyperlink ref="B385" r:id="rId353"/>
+    <hyperlink ref="B386" r:id="rId354"/>
+    <hyperlink ref="B387" r:id="rId355"/>
+    <hyperlink ref="B388" r:id="rId356"/>
+    <hyperlink ref="B389" r:id="rId357"/>
+    <hyperlink ref="B390" r:id="rId358"/>
+    <hyperlink ref="B391" r:id="rId359"/>
+    <hyperlink ref="B392" r:id="rId360"/>
+    <hyperlink ref="B393" r:id="rId361"/>
+    <hyperlink ref="B394" r:id="rId362"/>
+    <hyperlink ref="B395" r:id="rId363"/>
+    <hyperlink ref="B397" r:id="rId364"/>
+    <hyperlink ref="B396" r:id="rId365"/>
+    <hyperlink ref="B398" r:id="rId366"/>
+    <hyperlink ref="B399" r:id="rId367"/>
+    <hyperlink ref="B400" r:id="rId368"/>
+    <hyperlink ref="B403" r:id="rId369"/>
+    <hyperlink ref="B404" r:id="rId370"/>
+    <hyperlink ref="B405" r:id="rId371"/>
+    <hyperlink ref="B406" r:id="rId372"/>
+    <hyperlink ref="B407" r:id="rId373"/>
+    <hyperlink ref="B408" r:id="rId374"/>
+    <hyperlink ref="B411" r:id="rId375"/>
+    <hyperlink ref="B412" r:id="rId376"/>
+    <hyperlink ref="B413" r:id="rId377"/>
+    <hyperlink ref="B414" r:id="rId378"/>
+    <hyperlink ref="B415" r:id="rId379"/>
+    <hyperlink ref="B416" r:id="rId380"/>
+    <hyperlink ref="B417" r:id="rId381"/>
+    <hyperlink ref="B418" r:id="rId382"/>
+    <hyperlink ref="B419" r:id="rId383"/>
+    <hyperlink ref="B420" r:id="rId384"/>
+    <hyperlink ref="B421" r:id="rId385"/>
+    <hyperlink ref="B422" r:id="rId386"/>
+    <hyperlink ref="B423" r:id="rId387"/>
+    <hyperlink ref="B424" r:id="rId388"/>
+    <hyperlink ref="B425" r:id="rId389"/>
+    <hyperlink ref="B426" r:id="rId390"/>
+    <hyperlink ref="B427" r:id="rId391"/>
+    <hyperlink ref="B428" r:id="rId392"/>
+    <hyperlink ref="B429" r:id="rId393"/>
+    <hyperlink ref="B430" r:id="rId394"/>
+    <hyperlink ref="B431" r:id="rId395"/>
+    <hyperlink ref="B432" r:id="rId396"/>
+    <hyperlink ref="B433" r:id="rId397"/>
+    <hyperlink ref="B434" r:id="rId398"/>
+    <hyperlink ref="B435" r:id="rId399"/>
+    <hyperlink ref="B436" r:id="rId400"/>
+    <hyperlink ref="B437" r:id="rId401"/>
+    <hyperlink ref="B438" r:id="rId402"/>
+    <hyperlink ref="B439" r:id="rId403"/>
+    <hyperlink ref="B440" r:id="rId404"/>
+    <hyperlink ref="B441" r:id="rId405"/>
+    <hyperlink ref="B442" r:id="rId406"/>
+    <hyperlink ref="B443" r:id="rId407"/>
+    <hyperlink ref="B444" r:id="rId408"/>
+    <hyperlink ref="B445" r:id="rId409"/>
+    <hyperlink ref="B446" r:id="rId410"/>
+    <hyperlink ref="B447" r:id="rId411"/>
+    <hyperlink ref="B448" r:id="rId412"/>
+    <hyperlink ref="B449" r:id="rId413"/>
+    <hyperlink ref="B450" r:id="rId414"/>
+    <hyperlink ref="B452" r:id="rId415"/>
+    <hyperlink ref="B451" r:id="rId416"/>
+    <hyperlink ref="B453" r:id="rId417"/>
+    <hyperlink ref="B454" r:id="rId418"/>
+    <hyperlink ref="B455" r:id="rId419"/>
+    <hyperlink ref="B456" r:id="rId420"/>
+    <hyperlink ref="B457" r:id="rId421"/>
+    <hyperlink ref="B458" r:id="rId422"/>
+    <hyperlink ref="B459" r:id="rId423"/>
+    <hyperlink ref="B460" r:id="rId424"/>
+    <hyperlink ref="B461" r:id="rId425"/>
+    <hyperlink ref="B462" r:id="rId426"/>
+    <hyperlink ref="B463" r:id="rId427"/>
+    <hyperlink ref="B470" r:id="rId428"/>
+    <hyperlink ref="B469" r:id="rId429"/>
+    <hyperlink ref="B468" r:id="rId430"/>
+    <hyperlink ref="B467" r:id="rId431"/>
+    <hyperlink ref="B466" r:id="rId432"/>
+    <hyperlink ref="B465" r:id="rId433"/>
+    <hyperlink ref="B464" r:id="rId434"/>
+    <hyperlink ref="B473" r:id="rId435"/>
+    <hyperlink ref="B474" r:id="rId436"/>
+    <hyperlink ref="B475" r:id="rId437"/>
+    <hyperlink ref="B476" r:id="rId438"/>
+    <hyperlink ref="B477" r:id="rId439"/>
+    <hyperlink ref="B478" r:id="rId440"/>
+    <hyperlink ref="B479" r:id="rId441"/>
+    <hyperlink ref="B482" r:id="rId442"/>
+    <hyperlink ref="B480" r:id="rId443"/>
+    <hyperlink ref="B481" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
     <hyperlink ref="B356" r:id="rId445"/>
     <hyperlink ref="B2" r:id="rId446"/>
+    <hyperlink ref="B369" r:id="rId447" display="Implement Topological Sort "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId447"/>
+  <pageSetup orientation="portrait" r:id="rId448"/>
 </worksheet>
 </file>